--- a/view/assets/docs/1/lista_invitados.xlsx
+++ b/view/assets/docs/1/lista_invitados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Nombre</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Total de invitados: 4</t>
+  </si>
+  <si>
+    <t>Ausentes</t>
+  </si>
+  <si>
+    <t>Presentes</t>
   </si>
 </sst>
 </file>
@@ -130,9 +136,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -176,9 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -188,6 +206,147 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Asistencia de Invitados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$L$2:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Ausentes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Presentes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$M$2:$M$3</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$L$3:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Presentes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$M$3:$M$3</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -222,6 +381,38 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 2" id="2050"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -515,7 +706,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4:I4"/>
@@ -534,37 +725,53 @@
     <col min="9" max="9" width="25.851" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9"/>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+    <row r="1" spans="1:13"/>
+    <row r="2" spans="1:13">
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="L3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -593,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -622,7 +829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -651,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -680,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13">
       <c r="I9" t="s">
         <v>35</v>
       </c>
